--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl28-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl28-Ccr10.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ccl28</t>
+  </si>
+  <si>
+    <t>Ccr10</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Ccl28</t>
-  </si>
-  <si>
-    <t>Ccr10</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.04711899999999999</v>
+        <v>0.07943533333333333</v>
       </c>
       <c r="H2">
-        <v>0.141357</v>
+        <v>0.238306</v>
       </c>
       <c r="I2">
-        <v>0.3723222963522914</v>
+        <v>0.8002511845635669</v>
       </c>
       <c r="J2">
-        <v>0.3723222963522914</v>
+        <v>0.8002511845635669</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4846943333333333</v>
+        <v>0.5706193333333334</v>
       </c>
       <c r="N2">
-        <v>1.454083</v>
+        <v>1.711858</v>
       </c>
       <c r="O2">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130462</v>
       </c>
       <c r="P2">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130463</v>
       </c>
       <c r="Q2">
-        <v>0.02283831229233333</v>
+        <v>0.04532733694977778</v>
       </c>
       <c r="R2">
-        <v>0.205544810631</v>
+        <v>0.407946032548</v>
       </c>
       <c r="S2">
-        <v>0.2395155434955161</v>
+        <v>0.3351964523540836</v>
       </c>
       <c r="T2">
-        <v>0.2395155434955161</v>
+        <v>0.3351964523540837</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.04711899999999999</v>
+        <v>0.07943533333333333</v>
       </c>
       <c r="H3">
-        <v>0.141357</v>
+        <v>0.238306</v>
       </c>
       <c r="I3">
-        <v>0.3723222963522914</v>
+        <v>0.8002511845635669</v>
       </c>
       <c r="J3">
-        <v>0.3723222963522914</v>
+        <v>0.8002511845635669</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,28 +617,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2197996666666667</v>
+        <v>0.4846943333333333</v>
       </c>
       <c r="N3">
-        <v>0.6593990000000001</v>
+        <v>1.454083</v>
       </c>
       <c r="O3">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="P3">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="Q3">
-        <v>0.01035674049366667</v>
+        <v>0.0385018559331111</v>
       </c>
       <c r="R3">
-        <v>0.093210664443</v>
+        <v>0.3465167033979999</v>
       </c>
       <c r="S3">
-        <v>0.1086157460512225</v>
+        <v>0.2847219004312174</v>
       </c>
       <c r="T3">
-        <v>0.1086157460512225</v>
+        <v>0.2847219004312174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.04711899999999999</v>
+        <v>0.07943533333333333</v>
       </c>
       <c r="H4">
-        <v>0.141357</v>
+        <v>0.238306</v>
       </c>
       <c r="I4">
-        <v>0.3723222963522914</v>
+        <v>0.8002511845635669</v>
       </c>
       <c r="J4">
-        <v>0.3723222963522914</v>
+        <v>0.8002511845635669</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.048954</v>
+        <v>0.3069883333333334</v>
       </c>
       <c r="N4">
-        <v>0.146862</v>
+        <v>0.920965</v>
       </c>
       <c r="O4">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="P4">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="Q4">
-        <v>0.002306663526</v>
+        <v>0.02438572058777778</v>
       </c>
       <c r="R4">
-        <v>0.02075997173399999</v>
+        <v>0.21947148529</v>
       </c>
       <c r="S4">
-        <v>0.0241910068055527</v>
+        <v>0.1803328317782659</v>
       </c>
       <c r="T4">
-        <v>0.0241910068055527</v>
+        <v>0.1803328317782659</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.07943533333333333</v>
+        <v>0.01982766666666667</v>
       </c>
       <c r="H5">
-        <v>0.238306</v>
+        <v>0.059483</v>
       </c>
       <c r="I5">
-        <v>0.6276777036477087</v>
+        <v>0.1997488154364332</v>
       </c>
       <c r="J5">
-        <v>0.6276777036477087</v>
+        <v>0.1997488154364332</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4846943333333333</v>
+        <v>0.5706193333333334</v>
       </c>
       <c r="N5">
-        <v>1.454083</v>
+        <v>1.711858</v>
       </c>
       <c r="O5">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130462</v>
       </c>
       <c r="P5">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130463</v>
       </c>
       <c r="Q5">
-        <v>0.03850185593311111</v>
+        <v>0.01131404993488889</v>
       </c>
       <c r="R5">
-        <v>0.346516703398</v>
+        <v>0.101826449414</v>
       </c>
       <c r="S5">
-        <v>0.4037860955470367</v>
+        <v>0.08366759785896266</v>
       </c>
       <c r="T5">
-        <v>0.4037860955470367</v>
+        <v>0.08366759785896268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.07943533333333333</v>
+        <v>0.01982766666666667</v>
       </c>
       <c r="H6">
-        <v>0.238306</v>
+        <v>0.059483</v>
       </c>
       <c r="I6">
-        <v>0.6276777036477087</v>
+        <v>0.1997488154364332</v>
       </c>
       <c r="J6">
-        <v>0.6276777036477087</v>
+        <v>0.1997488154364332</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2197996666666667</v>
+        <v>0.4846943333333333</v>
       </c>
       <c r="N6">
-        <v>0.6593990000000001</v>
+        <v>1.454083</v>
       </c>
       <c r="O6">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="P6">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="Q6">
-        <v>0.01745985978822222</v>
+        <v>0.009610357676555555</v>
       </c>
       <c r="R6">
-        <v>0.157138738094</v>
+        <v>0.08649321908899998</v>
       </c>
       <c r="S6">
-        <v>0.183109318806162</v>
+        <v>0.07106876370443925</v>
       </c>
       <c r="T6">
-        <v>0.183109318806162</v>
+        <v>0.07106876370443926</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.07943533333333333</v>
+        <v>0.01982766666666667</v>
       </c>
       <c r="H7">
-        <v>0.238306</v>
+        <v>0.059483</v>
       </c>
       <c r="I7">
-        <v>0.6276777036477087</v>
+        <v>0.1997488154364332</v>
       </c>
       <c r="J7">
-        <v>0.6276777036477087</v>
+        <v>0.1997488154364332</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.048954</v>
+        <v>0.3069883333333334</v>
       </c>
       <c r="N7">
-        <v>0.146862</v>
+        <v>0.920965</v>
       </c>
       <c r="O7">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="P7">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="Q7">
-        <v>0.003888677308</v>
+        <v>0.00608686234388889</v>
       </c>
       <c r="R7">
-        <v>0.034998095772</v>
+        <v>0.05478176109500001</v>
       </c>
       <c r="S7">
-        <v>0.04078228929450994</v>
+        <v>0.04501245387303126</v>
       </c>
       <c r="T7">
-        <v>0.04078228929450994</v>
+        <v>0.04501245387303126</v>
       </c>
     </row>
   </sheetData>
